--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/F2-Itga2b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/F2-Itga2b.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9173669999999999</v>
+        <v>1.249360666666667</v>
       </c>
       <c r="H2">
-        <v>2.752101</v>
+        <v>3.748082</v>
       </c>
       <c r="I2">
-        <v>0.3945831400754584</v>
+        <v>0.4337789268835784</v>
       </c>
       <c r="J2">
-        <v>0.3945831400754584</v>
+        <v>0.4337789268835784</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.540966666666667</v>
+        <v>1.780241</v>
       </c>
       <c r="N2">
-        <v>4.6229</v>
+        <v>5.340723000000001</v>
       </c>
       <c r="O2">
-        <v>0.2511536994468903</v>
+        <v>0.2571704734300857</v>
       </c>
       <c r="P2">
-        <v>0.2511536994468903</v>
+        <v>0.2571704734300857</v>
       </c>
       <c r="Q2">
-        <v>1.4136319681</v>
+        <v>2.224163082587334</v>
       </c>
       <c r="R2">
-        <v>12.7226877129</v>
+        <v>20.017467743286</v>
       </c>
       <c r="S2">
-        <v>0.09910101536932191</v>
+        <v>0.1115551319906444</v>
       </c>
       <c r="T2">
-        <v>0.09910101536932189</v>
+        <v>0.1115551319906444</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9173669999999999</v>
+        <v>1.249360666666667</v>
       </c>
       <c r="H3">
-        <v>2.752101</v>
+        <v>3.748082</v>
       </c>
       <c r="I3">
-        <v>0.3945831400754584</v>
+        <v>0.4337789268835784</v>
       </c>
       <c r="J3">
-        <v>0.3945831400754584</v>
+        <v>0.4337789268835784</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>9.568944</v>
       </c>
       <c r="O3">
-        <v>0.5198632212247992</v>
+        <v>0.4607709215973151</v>
       </c>
       <c r="P3">
-        <v>0.5198632212247993</v>
+        <v>0.4607709215973152</v>
       </c>
       <c r="Q3">
-        <v>2.926077816816</v>
+        <v>3.985020751712</v>
       </c>
       <c r="R3">
-        <v>26.334700351344</v>
+        <v>35.865186765408</v>
       </c>
       <c r="S3">
-        <v>0.205129262240624</v>
+        <v>0.1998727159096408</v>
       </c>
       <c r="T3">
-        <v>0.205129262240624</v>
+        <v>0.1998727159096408</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.9173669999999999</v>
+        <v>1.249360666666667</v>
       </c>
       <c r="H4">
-        <v>2.752101</v>
+        <v>3.748082</v>
       </c>
       <c r="I4">
-        <v>0.3945831400754584</v>
+        <v>0.4337789268835784</v>
       </c>
       <c r="J4">
-        <v>0.3945831400754584</v>
+        <v>0.4337789268835784</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.300239</v>
+        <v>0.4746316666666666</v>
       </c>
       <c r="N4">
-        <v>0.900717</v>
+        <v>1.423895</v>
       </c>
       <c r="O4">
-        <v>0.04893430675651748</v>
+        <v>0.06856445302718973</v>
       </c>
       <c r="P4">
-        <v>0.04893430675651749</v>
+        <v>0.06856445302718973</v>
       </c>
       <c r="Q4">
-        <v>0.275429350713</v>
+        <v>0.5929861354877778</v>
       </c>
       <c r="R4">
-        <v>2.478864156417</v>
+        <v>5.33687521939</v>
       </c>
       <c r="S4">
-        <v>0.01930865241740239</v>
+        <v>0.02974181485649388</v>
       </c>
       <c r="T4">
-        <v>0.01930865241740239</v>
+        <v>0.02974181485649388</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.9173669999999999</v>
+        <v>1.249360666666667</v>
       </c>
       <c r="H5">
-        <v>2.752101</v>
+        <v>3.748082</v>
       </c>
       <c r="I5">
-        <v>0.3945831400754584</v>
+        <v>0.4337789268835784</v>
       </c>
       <c r="J5">
-        <v>0.3945831400754584</v>
+        <v>0.4337789268835784</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.684233</v>
+        <v>0.9303213333333334</v>
       </c>
       <c r="N5">
-        <v>2.052699</v>
+        <v>2.790964</v>
       </c>
       <c r="O5">
-        <v>0.1115193812760242</v>
+        <v>0.1343925781596098</v>
       </c>
       <c r="P5">
-        <v>0.1115193812760242</v>
+        <v>0.1343925781596098</v>
       </c>
       <c r="Q5">
-        <v>0.6276927745109999</v>
+        <v>1.162306881227556</v>
       </c>
       <c r="R5">
-        <v>5.649234970598999</v>
+        <v>10.460761931048</v>
       </c>
       <c r="S5">
-        <v>0.04400366764316591</v>
+        <v>0.05829666833519299</v>
       </c>
       <c r="T5">
-        <v>0.04400366764316591</v>
+        <v>0.05829666833519298</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.9173669999999999</v>
+        <v>1.249360666666667</v>
       </c>
       <c r="H6">
-        <v>2.752101</v>
+        <v>3.748082</v>
       </c>
       <c r="I6">
-        <v>0.3945831400754584</v>
+        <v>0.4337789268835784</v>
       </c>
       <c r="J6">
-        <v>0.3945831400754584</v>
+        <v>0.4337789268835784</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.4204656666666667</v>
+        <v>0.547574</v>
       </c>
       <c r="N6">
-        <v>1.261397</v>
+        <v>1.642722</v>
       </c>
       <c r="O6">
-        <v>0.0685293912957687</v>
+        <v>0.07910157378579964</v>
       </c>
       <c r="P6">
-        <v>0.06852939129576871</v>
+        <v>0.07910157378579964</v>
       </c>
       <c r="Q6">
-        <v>0.385721327233</v>
+        <v>0.6841174176893334</v>
       </c>
       <c r="R6">
-        <v>3.471491945097</v>
+        <v>6.157056759204</v>
       </c>
       <c r="S6">
-        <v>0.0270405424049442</v>
+        <v>0.03431259579160637</v>
       </c>
       <c r="T6">
-        <v>0.0270405424049442</v>
+        <v>0.03431259579160637</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>2.472129</v>
       </c>
       <c r="I7">
-        <v>0.3544420875148125</v>
+        <v>0.2861083254682725</v>
       </c>
       <c r="J7">
-        <v>0.3544420875148125</v>
+        <v>0.2861083254682725</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.540966666666667</v>
+        <v>1.780241</v>
       </c>
       <c r="N7">
-        <v>4.6229</v>
+        <v>5.340723000000001</v>
       </c>
       <c r="O7">
-        <v>0.2511536994468903</v>
+        <v>0.2571704734300857</v>
       </c>
       <c r="P7">
-        <v>0.2511536994468903</v>
+        <v>0.2571704734300857</v>
       </c>
       <c r="Q7">
-        <v>1.2698227949</v>
+        <v>1.466995134363</v>
       </c>
       <c r="R7">
-        <v>11.4284051541</v>
+        <v>13.202956209267</v>
       </c>
       <c r="S7">
-        <v>0.08901944151902361</v>
+        <v>0.07357861351296469</v>
       </c>
       <c r="T7">
-        <v>0.08901944151902361</v>
+        <v>0.07357861351296467</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>2.472129</v>
       </c>
       <c r="I8">
-        <v>0.3544420875148125</v>
+        <v>0.2861083254682725</v>
       </c>
       <c r="J8">
-        <v>0.3544420875148125</v>
+        <v>0.2861083254682725</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>9.568944</v>
       </c>
       <c r="O8">
-        <v>0.5198632212247992</v>
+        <v>0.4607709215973151</v>
       </c>
       <c r="P8">
-        <v>0.5198632212247993</v>
+        <v>0.4607709215973152</v>
       </c>
       <c r="Q8">
         <v>2.628407106864</v>
@@ -948,10 +948,10 @@
         <v>23.655663961776</v>
       </c>
       <c r="S8">
-        <v>0.1842614053530926</v>
+        <v>0.1318303968026805</v>
       </c>
       <c r="T8">
-        <v>0.1842614053530927</v>
+        <v>0.1318303968026805</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,40 +980,40 @@
         <v>2.472129</v>
       </c>
       <c r="I9">
-        <v>0.3544420875148125</v>
+        <v>0.2861083254682725</v>
       </c>
       <c r="J9">
-        <v>0.3544420875148125</v>
+        <v>0.2861083254682725</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.300239</v>
+        <v>0.4746316666666666</v>
       </c>
       <c r="N9">
-        <v>0.900717</v>
+        <v>1.423895</v>
       </c>
       <c r="O9">
-        <v>0.04893430675651748</v>
+        <v>0.06856445302718973</v>
       </c>
       <c r="P9">
-        <v>0.04893430675651749</v>
+        <v>0.06856445302718973</v>
       </c>
       <c r="Q9">
-        <v>0.247409846277</v>
+        <v>0.3911169024949999</v>
       </c>
       <c r="R9">
-        <v>2.226688616493</v>
+        <v>3.520052122455</v>
       </c>
       <c r="S9">
-        <v>0.01734437783787025</v>
+        <v>0.01961686084225728</v>
       </c>
       <c r="T9">
-        <v>0.01734437783787025</v>
+        <v>0.01961686084225728</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>2.472129</v>
       </c>
       <c r="I10">
-        <v>0.3544420875148125</v>
+        <v>0.2861083254682725</v>
       </c>
       <c r="J10">
-        <v>0.3544420875148125</v>
+        <v>0.2861083254682725</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.684233</v>
+        <v>0.9303213333333334</v>
       </c>
       <c r="N10">
-        <v>2.052699</v>
+        <v>2.790964</v>
       </c>
       <c r="O10">
-        <v>0.1115193812760242</v>
+        <v>0.1343925781596098</v>
       </c>
       <c r="P10">
-        <v>0.1115193812760242</v>
+        <v>0.1343925781596098</v>
       </c>
       <c r="Q10">
-        <v>0.563837414019</v>
+        <v>0.766624782484</v>
       </c>
       <c r="R10">
-        <v>5.074536726171</v>
+        <v>6.899623042356</v>
       </c>
       <c r="S10">
-        <v>0.03952716229783431</v>
+        <v>0.0384508354926099</v>
       </c>
       <c r="T10">
-        <v>0.03952716229783432</v>
+        <v>0.03845083549260989</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>2.472129</v>
       </c>
       <c r="I11">
-        <v>0.3544420875148125</v>
+        <v>0.2861083254682725</v>
       </c>
       <c r="J11">
-        <v>0.3544420875148125</v>
+        <v>0.2861083254682725</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.4204656666666667</v>
+        <v>0.547574</v>
       </c>
       <c r="N11">
-        <v>1.261397</v>
+        <v>1.642722</v>
       </c>
       <c r="O11">
-        <v>0.0685293912957687</v>
+        <v>0.07910157378579964</v>
       </c>
       <c r="P11">
-        <v>0.06852939129576871</v>
+        <v>0.07910157378579964</v>
       </c>
       <c r="Q11">
-        <v>0.346481789357</v>
+        <v>0.451224521682</v>
       </c>
       <c r="R11">
-        <v>3.118336104213</v>
+        <v>4.061020695138</v>
       </c>
       <c r="S11">
-        <v>0.02428970050699168</v>
+        <v>0.02263161881776014</v>
       </c>
       <c r="T11">
-        <v>0.02428970050699168</v>
+        <v>0.02263161881776013</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.172111</v>
+        <v>0.040438</v>
       </c>
       <c r="H12">
-        <v>0.5163329999999999</v>
+        <v>0.121314</v>
       </c>
       <c r="I12">
-        <v>0.07402936755031217</v>
+        <v>0.01404010284085418</v>
       </c>
       <c r="J12">
-        <v>0.07402936755031216</v>
+        <v>0.01404010284085418</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.540966666666667</v>
+        <v>1.780241</v>
       </c>
       <c r="N12">
-        <v>4.6229</v>
+        <v>5.340723000000001</v>
       </c>
       <c r="O12">
-        <v>0.2511536994468903</v>
+        <v>0.2571704734300857</v>
       </c>
       <c r="P12">
-        <v>0.2511536994468903</v>
+        <v>0.2571704734300857</v>
       </c>
       <c r="Q12">
-        <v>0.2652173139666666</v>
+        <v>0.07198938555800001</v>
       </c>
       <c r="R12">
-        <v>2.386955825699999</v>
+        <v>0.6479044700220001</v>
       </c>
       <c r="S12">
-        <v>0.01859274952797448</v>
+        <v>0.003610699894589561</v>
       </c>
       <c r="T12">
-        <v>0.01859274952797447</v>
+        <v>0.003610699894589561</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.172111</v>
+        <v>0.040438</v>
       </c>
       <c r="H13">
-        <v>0.5163329999999999</v>
+        <v>0.121314</v>
       </c>
       <c r="I13">
-        <v>0.07402936755031217</v>
+        <v>0.01404010284085418</v>
       </c>
       <c r="J13">
-        <v>0.07402936755031216</v>
+        <v>0.01404010284085418</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>9.568944</v>
       </c>
       <c r="O13">
-        <v>0.5198632212247992</v>
+        <v>0.4607709215973151</v>
       </c>
       <c r="P13">
-        <v>0.5198632212247993</v>
+        <v>0.4607709215973152</v>
       </c>
       <c r="Q13">
-        <v>0.548973506928</v>
+        <v>0.128982985824</v>
       </c>
       <c r="R13">
-        <v>4.940761562352</v>
+        <v>1.160846872416</v>
       </c>
       <c r="S13">
-        <v>0.03848514547993991</v>
+        <v>0.006469271125301465</v>
       </c>
       <c r="T13">
-        <v>0.03848514547993991</v>
+        <v>0.006469271125301466</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.040438</v>
+      </c>
+      <c r="H14">
+        <v>0.121314</v>
+      </c>
+      <c r="I14">
+        <v>0.01404010284085418</v>
+      </c>
+      <c r="J14">
+        <v>0.01404010284085418</v>
+      </c>
+      <c r="K14">
         <v>2</v>
       </c>
-      <c r="F14">
+      <c r="L14">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G14">
-        <v>0.172111</v>
-      </c>
-      <c r="H14">
-        <v>0.5163329999999999</v>
-      </c>
-      <c r="I14">
-        <v>0.07402936755031217</v>
-      </c>
-      <c r="J14">
-        <v>0.07402936755031216</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
       <c r="M14">
-        <v>0.300239</v>
+        <v>0.4746316666666666</v>
       </c>
       <c r="N14">
-        <v>0.900717</v>
+        <v>1.423895</v>
       </c>
       <c r="O14">
-        <v>0.04893430675651748</v>
+        <v>0.06856445302718973</v>
       </c>
       <c r="P14">
-        <v>0.04893430675651749</v>
+        <v>0.06856445302718973</v>
       </c>
       <c r="Q14">
-        <v>0.05167443452899999</v>
+        <v>0.01919315533666667</v>
       </c>
       <c r="R14">
-        <v>0.4650699107609999</v>
+        <v>0.17273839803</v>
       </c>
       <c r="S14">
-        <v>0.003622575780697957</v>
+        <v>0.0009626519717286598</v>
       </c>
       <c r="T14">
-        <v>0.003622575780697957</v>
+        <v>0.0009626519717286598</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.172111</v>
+        <v>0.040438</v>
       </c>
       <c r="H15">
-        <v>0.5163329999999999</v>
+        <v>0.121314</v>
       </c>
       <c r="I15">
-        <v>0.07402936755031217</v>
+        <v>0.01404010284085418</v>
       </c>
       <c r="J15">
-        <v>0.07402936755031216</v>
+        <v>0.01404010284085418</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.684233</v>
+        <v>0.9303213333333334</v>
       </c>
       <c r="N15">
-        <v>2.052699</v>
+        <v>2.790964</v>
       </c>
       <c r="O15">
-        <v>0.1115193812760242</v>
+        <v>0.1343925781596098</v>
       </c>
       <c r="P15">
-        <v>0.1115193812760242</v>
+        <v>0.1343925781596098</v>
       </c>
       <c r="Q15">
-        <v>0.117764025863</v>
+        <v>0.03762033407733334</v>
       </c>
       <c r="R15">
-        <v>1.059876232767</v>
+        <v>0.3385830066960001</v>
       </c>
       <c r="S15">
-        <v>0.008255709265466198</v>
+        <v>0.001886885618408456</v>
       </c>
       <c r="T15">
-        <v>0.008255709265466196</v>
+        <v>0.001886885618408456</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.172111</v>
+        <v>0.040438</v>
       </c>
       <c r="H16">
-        <v>0.5163329999999999</v>
+        <v>0.121314</v>
       </c>
       <c r="I16">
-        <v>0.07402936755031217</v>
+        <v>0.01404010284085418</v>
       </c>
       <c r="J16">
-        <v>0.07402936755031216</v>
+        <v>0.01404010284085418</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.4204656666666667</v>
+        <v>0.547574</v>
       </c>
       <c r="N16">
-        <v>1.261397</v>
+        <v>1.642722</v>
       </c>
       <c r="O16">
-        <v>0.0685293912957687</v>
+        <v>0.07910157378579964</v>
       </c>
       <c r="P16">
-        <v>0.06852939129576871</v>
+        <v>0.07910157378579964</v>
       </c>
       <c r="Q16">
-        <v>0.07236676635566666</v>
+        <v>0.022142797412</v>
       </c>
       <c r="R16">
-        <v>0.6513008972009999</v>
+        <v>0.199285176708</v>
       </c>
       <c r="S16">
-        <v>0.005073187496233624</v>
+        <v>0.001110594230826042</v>
       </c>
       <c r="T16">
-        <v>0.005073187496233624</v>
+        <v>0.001110594230826042</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.3345336666666667</v>
+        <v>0.5385856666666667</v>
       </c>
       <c r="H17">
-        <v>1.003601</v>
+        <v>1.615757</v>
       </c>
       <c r="I17">
-        <v>0.1438915337637936</v>
+        <v>0.1869973329197787</v>
       </c>
       <c r="J17">
-        <v>0.1438915337637936</v>
+        <v>0.1869973329197787</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.540966666666667</v>
+        <v>1.780241</v>
       </c>
       <c r="N17">
-        <v>4.6229</v>
+        <v>5.340723000000001</v>
       </c>
       <c r="O17">
-        <v>0.2511536994468903</v>
+        <v>0.2571704734300857</v>
       </c>
       <c r="P17">
-        <v>0.2511536994468903</v>
+        <v>0.2571704734300857</v>
       </c>
       <c r="Q17">
-        <v>0.5155052292111111</v>
+        <v>0.9588122858123336</v>
       </c>
       <c r="R17">
-        <v>4.639547062899999</v>
+        <v>8.629310572311001</v>
       </c>
       <c r="S17">
-        <v>0.03613889102386389</v>
+        <v>0.04809019263714284</v>
       </c>
       <c r="T17">
-        <v>0.03613889102386389</v>
+        <v>0.04809019263714284</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.3345336666666667</v>
+        <v>0.5385856666666667</v>
       </c>
       <c r="H18">
-        <v>1.003601</v>
+        <v>1.615757</v>
       </c>
       <c r="I18">
-        <v>0.1438915337637936</v>
+        <v>0.1869973329197787</v>
       </c>
       <c r="J18">
-        <v>0.1438915337637936</v>
+        <v>0.1869973329197787</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>9.568944</v>
       </c>
       <c r="O18">
-        <v>0.5198632212247992</v>
+        <v>0.4607709215973151</v>
       </c>
       <c r="P18">
-        <v>0.5198632212247993</v>
+        <v>0.4607709215973152</v>
       </c>
       <c r="Q18">
-        <v>1.067044640816</v>
+        <v>1.717898694512</v>
       </c>
       <c r="R18">
-        <v>9.603401767344</v>
+        <v>15.461088250608</v>
       </c>
       <c r="S18">
-        <v>0.0748039162494227</v>
+        <v>0.0861629334256864</v>
       </c>
       <c r="T18">
-        <v>0.07480391624942272</v>
+        <v>0.0861629334256864</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,46 +1594,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.3345336666666667</v>
+        <v>0.5385856666666667</v>
       </c>
       <c r="H19">
-        <v>1.003601</v>
+        <v>1.615757</v>
       </c>
       <c r="I19">
-        <v>0.1438915337637936</v>
+        <v>0.1869973329197787</v>
       </c>
       <c r="J19">
-        <v>0.1438915337637936</v>
+        <v>0.1869973329197787</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.300239</v>
+        <v>0.4746316666666666</v>
       </c>
       <c r="N19">
-        <v>0.900717</v>
+        <v>1.423895</v>
       </c>
       <c r="O19">
-        <v>0.04893430675651748</v>
+        <v>0.06856445302718973</v>
       </c>
       <c r="P19">
-        <v>0.04893430675651749</v>
+        <v>0.06856445302718973</v>
       </c>
       <c r="Q19">
-        <v>0.1004400535463333</v>
+        <v>0.2556298126127778</v>
       </c>
       <c r="R19">
-        <v>0.903960481917</v>
+        <v>2.300668313515</v>
       </c>
       <c r="S19">
-        <v>0.007041232452863269</v>
+        <v>0.01282136984918793</v>
       </c>
       <c r="T19">
-        <v>0.00704123245286327</v>
+        <v>0.01282136984918793</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.3345336666666667</v>
+        <v>0.5385856666666667</v>
       </c>
       <c r="H20">
-        <v>1.003601</v>
+        <v>1.615757</v>
       </c>
       <c r="I20">
-        <v>0.1438915337637936</v>
+        <v>0.1869973329197787</v>
       </c>
       <c r="J20">
-        <v>0.1438915337637936</v>
+        <v>0.1869973329197787</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.684233</v>
+        <v>0.9303213333333334</v>
       </c>
       <c r="N20">
-        <v>2.052699</v>
+        <v>2.790964</v>
       </c>
       <c r="O20">
-        <v>0.1115193812760242</v>
+        <v>0.1343925781596098</v>
       </c>
       <c r="P20">
-        <v>0.1115193812760242</v>
+        <v>0.1343925781596098</v>
       </c>
       <c r="Q20">
-        <v>0.2288989743443333</v>
+        <v>0.5010577355275557</v>
       </c>
       <c r="R20">
-        <v>2.060090769099</v>
+        <v>4.509519619748001</v>
       </c>
       <c r="S20">
-        <v>0.01604669481619641</v>
+        <v>0.02513105368005994</v>
       </c>
       <c r="T20">
-        <v>0.01604669481619641</v>
+        <v>0.02513105368005994</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.3345336666666667</v>
+        <v>0.5385856666666667</v>
       </c>
       <c r="H21">
-        <v>1.003601</v>
+        <v>1.615757</v>
       </c>
       <c r="I21">
-        <v>0.1438915337637936</v>
+        <v>0.1869973329197787</v>
       </c>
       <c r="J21">
-        <v>0.1438915337637936</v>
+        <v>0.1869973329197787</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.4204656666666667</v>
+        <v>0.547574</v>
       </c>
       <c r="N21">
-        <v>1.261397</v>
+        <v>1.642722</v>
       </c>
       <c r="O21">
-        <v>0.0685293912957687</v>
+        <v>0.07910157378579964</v>
       </c>
       <c r="P21">
-        <v>0.06852939129576871</v>
+        <v>0.07910157378579964</v>
       </c>
       <c r="Q21">
-        <v>0.1406599211774444</v>
+        <v>0.2949155078393334</v>
       </c>
       <c r="R21">
-        <v>1.265939290597</v>
+        <v>2.654239570554</v>
       </c>
       <c r="S21">
-        <v>0.009860799221447324</v>
+        <v>0.01479178332770162</v>
       </c>
       <c r="T21">
-        <v>0.009860799221447327</v>
+        <v>0.01479178332770162</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.076847</v>
+        <v>0.227751</v>
       </c>
       <c r="H22">
-        <v>0.230541</v>
+        <v>0.683253</v>
       </c>
       <c r="I22">
-        <v>0.0330538710956234</v>
+        <v>0.07907531188751622</v>
       </c>
       <c r="J22">
-        <v>0.0330538710956234</v>
+        <v>0.07907531188751622</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.540966666666667</v>
+        <v>1.780241</v>
       </c>
       <c r="N22">
-        <v>4.6229</v>
+        <v>5.340723000000001</v>
       </c>
       <c r="O22">
-        <v>0.2511536994468903</v>
+        <v>0.2571704734300857</v>
       </c>
       <c r="P22">
-        <v>0.2511536994468903</v>
+        <v>0.2571704734300857</v>
       </c>
       <c r="Q22">
-        <v>0.1184186654333333</v>
+        <v>0.4054516679910001</v>
       </c>
       <c r="R22">
-        <v>1.0657679889</v>
+        <v>3.649065011919</v>
       </c>
       <c r="S22">
-        <v>0.008301602006706455</v>
+        <v>0.02033583539474423</v>
       </c>
       <c r="T22">
-        <v>0.008301602006706455</v>
+        <v>0.02033583539474423</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.076847</v>
+        <v>0.227751</v>
       </c>
       <c r="H23">
-        <v>0.230541</v>
+        <v>0.683253</v>
       </c>
       <c r="I23">
-        <v>0.0330538710956234</v>
+        <v>0.07907531188751622</v>
       </c>
       <c r="J23">
-        <v>0.0330538710956234</v>
+        <v>0.07907531188751622</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>9.568944</v>
       </c>
       <c r="O23">
-        <v>0.5198632212247992</v>
+        <v>0.4607709215973151</v>
       </c>
       <c r="P23">
-        <v>0.5198632212247993</v>
+        <v>0.4607709215973152</v>
       </c>
       <c r="Q23">
-        <v>0.245114879856</v>
+        <v>0.726445521648</v>
       </c>
       <c r="R23">
-        <v>2.206033918704</v>
+        <v>6.538009694832</v>
       </c>
       <c r="S23">
-        <v>0.01718349190172007</v>
+        <v>0.03643560433400598</v>
       </c>
       <c r="T23">
-        <v>0.01718349190172007</v>
+        <v>0.03643560433400599</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.076847</v>
+        <v>0.227751</v>
       </c>
       <c r="H24">
-        <v>0.230541</v>
+        <v>0.683253</v>
       </c>
       <c r="I24">
-        <v>0.0330538710956234</v>
+        <v>0.07907531188751622</v>
       </c>
       <c r="J24">
-        <v>0.0330538710956234</v>
+        <v>0.07907531188751622</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.300239</v>
+        <v>0.4746316666666666</v>
       </c>
       <c r="N24">
-        <v>0.900717</v>
+        <v>1.423895</v>
       </c>
       <c r="O24">
-        <v>0.04893430675651748</v>
+        <v>0.06856445302718973</v>
       </c>
       <c r="P24">
-        <v>0.04893430675651749</v>
+        <v>0.06856445302718973</v>
       </c>
       <c r="Q24">
-        <v>0.023072466433</v>
+        <v>0.108097836715</v>
       </c>
       <c r="R24">
-        <v>0.207652197897</v>
+        <v>0.9728805304349999</v>
       </c>
       <c r="S24">
-        <v>0.001617468267683622</v>
+        <v>0.005421755507521984</v>
       </c>
       <c r="T24">
-        <v>0.001617468267683623</v>
+        <v>0.005421755507521984</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.076847</v>
+        <v>0.227751</v>
       </c>
       <c r="H25">
-        <v>0.230541</v>
+        <v>0.683253</v>
       </c>
       <c r="I25">
-        <v>0.0330538710956234</v>
+        <v>0.07907531188751622</v>
       </c>
       <c r="J25">
-        <v>0.0330538710956234</v>
+        <v>0.07907531188751622</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.684233</v>
+        <v>0.9303213333333334</v>
       </c>
       <c r="N25">
-        <v>2.052699</v>
+        <v>2.790964</v>
       </c>
       <c r="O25">
-        <v>0.1115193812760242</v>
+        <v>0.1343925781596098</v>
       </c>
       <c r="P25">
-        <v>0.1115193812760242</v>
+        <v>0.1343925781596098</v>
       </c>
       <c r="Q25">
-        <v>0.05258125335099999</v>
+        <v>0.211881613988</v>
       </c>
       <c r="R25">
-        <v>0.473231280159</v>
+        <v>1.906934525892</v>
       </c>
       <c r="S25">
-        <v>0.003686147253361382</v>
+        <v>0.01062713503333855</v>
       </c>
       <c r="T25">
-        <v>0.003686147253361383</v>
+        <v>0.01062713503333855</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.076847</v>
+        <v>0.227751</v>
       </c>
       <c r="H26">
-        <v>0.230541</v>
+        <v>0.683253</v>
       </c>
       <c r="I26">
-        <v>0.0330538710956234</v>
+        <v>0.07907531188751622</v>
       </c>
       <c r="J26">
-        <v>0.0330538710956234</v>
+        <v>0.07907531188751622</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.4204656666666667</v>
+        <v>0.547574</v>
       </c>
       <c r="N26">
-        <v>1.261397</v>
+        <v>1.642722</v>
       </c>
       <c r="O26">
-        <v>0.0685293912957687</v>
+        <v>0.07910157378579964</v>
       </c>
       <c r="P26">
-        <v>0.06852939129576871</v>
+        <v>0.07910157378579964</v>
       </c>
       <c r="Q26">
-        <v>0.03231152508633334</v>
+        <v>0.124710526074</v>
       </c>
       <c r="R26">
-        <v>0.290803725777</v>
+        <v>1.122394734666</v>
       </c>
       <c r="S26">
-        <v>0.002265161666151875</v>
+        <v>0.006254981617905484</v>
       </c>
       <c r="T26">
-        <v>0.002265161666151875</v>
+        <v>0.006254981617905484</v>
       </c>
     </row>
   </sheetData>
